--- a/VerveStacks_AUS/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_AUS/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_AUS\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{648D9F14-FE1E-4E58-9629-A2DD375CF4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BD59800-2272-44C8-B7A9-DE5B083FD552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_AUS/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_AUS/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_AUS\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BD59800-2272-44C8-B7A9-DE5B083FD552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E37DE5B5-250C-4403-87F9-3C4212475A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,20 +378,20 @@
     </font>
     <font>
       <i/>
-      <sz val="9"/>
+      <sz val="7"/>
       <color rgb="FF969696"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -3427,7 +3427,7 @@
     <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="13"/>
     </row>
-    <row r="2" spans="1:4" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="14" t="s">
         <v>55</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
         <v>34</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>180.26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>36</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>16.760000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>56</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>16.47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
         <v>38</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
         <v>58</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>59</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
         <v>32</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>34</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>179.88</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
         <v>36</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>56</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>16.12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="17" t="s">
         <v>38</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>58</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="17" t="s">
         <v>59</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
         <v>32</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="17" t="s">
         <v>34</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>171.86</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
         <v>36</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>30.55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="17" t="s">
         <v>56</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>16.09</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
         <v>38</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="17" t="s">
         <v>58</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
         <v>59</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="17" t="s">
         <v>32</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="15" t="s">
         <v>34</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>173.61</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="17" t="s">
         <v>36</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="15" t="s">
         <v>56</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>16.21</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="17" t="s">
         <v>38</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
         <v>58</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="17" t="s">
         <v>59</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="15" t="s">
         <v>32</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>178.96</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
         <v>36</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>27.36</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="17" t="s">
         <v>56</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>15.69</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="15" t="s">
         <v>38</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="17" t="s">
         <v>58</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="15" t="s">
         <v>59</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="17" t="s">
         <v>32</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="15" t="s">
         <v>34</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>182.98</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="17" t="s">
         <v>36</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>23.26</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="15" t="s">
         <v>56</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>15.47</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="17" t="s">
         <v>38</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
         <v>58</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="17" t="s">
         <v>59</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="15" t="s">
         <v>32</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="17" t="s">
         <v>34</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>185.76</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="15" t="s">
         <v>36</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>27.29</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="17" t="s">
         <v>56</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="15" t="s">
         <v>57</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="17" t="s">
         <v>38</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="15" t="s">
         <v>58</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="17" t="s">
         <v>59</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="15" t="s">
         <v>32</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="17" t="s">
         <v>34</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>185.49</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="15" t="s">
         <v>36</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="17" t="s">
         <v>56</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>13.05</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="15" t="s">
         <v>38</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="17" t="s">
         <v>58</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="15" t="s">
         <v>59</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="17" t="s">
         <v>32</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="15" t="s">
         <v>34</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>184.24</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="17" t="s">
         <v>36</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>36.31</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="15" t="s">
         <v>56</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>11.82</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="17" t="s">
         <v>38</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>5.71</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="15" t="s">
         <v>58</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="17" t="s">
         <v>59</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="15" t="s">
         <v>32</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="17" t="s">
         <v>34</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>182.02</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="15" t="s">
         <v>36</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>41.12</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="17" t="s">
         <v>56</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="15" t="s">
         <v>38</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="17" t="s">
         <v>58</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="15" t="s">
         <v>59</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="17" t="s">
         <v>32</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="15" t="s">
         <v>34</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>176.02</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="17" t="s">
         <v>36</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>46.79</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="15" t="s">
         <v>56</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="17" t="s">
         <v>38</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="15" t="s">
         <v>58</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="17" t="s">
         <v>59</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="15" t="s">
         <v>32</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="17" t="s">
         <v>34</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>171.98</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="15" t="s">
         <v>36</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>48.78</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="17" t="s">
         <v>56</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>19.57</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="15" t="s">
         <v>38</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="17" t="s">
         <v>58</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="15" t="s">
         <v>59</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="17" t="s">
         <v>32</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="15" t="s">
         <v>34</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>165.38</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="17" t="s">
         <v>36</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>49.81</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="15" t="s">
         <v>56</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>17.04</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="17" t="s">
         <v>38</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="15" t="s">
         <v>58</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="17" t="s">
         <v>59</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="15" t="s">
         <v>32</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="17" t="s">
         <v>34</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>155.44999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="15" t="s">
         <v>36</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>52.72</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="17" t="s">
         <v>56</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="15" t="s">
         <v>38</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="17" t="s">
         <v>58</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="15" t="s">
         <v>59</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>9.26</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="17" t="s">
         <v>32</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="15" t="s">
         <v>34</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>155.22999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="17" t="s">
         <v>36</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>53.66</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="15" t="s">
         <v>56</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="17" t="s">
         <v>38</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="15" t="s">
         <v>58</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="17" t="s">
         <v>59</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>9.7799999999999994</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="15" t="s">
         <v>32</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="17" t="s">
         <v>34</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>162.19999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="15" t="s">
         <v>36</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>49.71</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="17" t="s">
         <v>56</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>14.09</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="15" t="s">
         <v>38</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>6.28</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="17" t="s">
         <v>58</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="15" t="s">
         <v>59</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>11.83</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="17" t="s">
         <v>32</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="15" t="s">
         <v>34</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>162.36000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="17" t="s">
         <v>36</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>48.11</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="15" t="s">
         <v>56</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>17.63</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="17" t="s">
         <v>38</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>6.02</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="15" t="s">
         <v>58</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="17" t="s">
         <v>59</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>13.04</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="15" t="s">
         <v>32</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="17" t="s">
         <v>34</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>159.16999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="15" t="s">
         <v>36</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>55.09</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="17" t="s">
         <v>56</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="15" t="s">
         <v>38</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="17" t="s">
         <v>58</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>8.92</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="15" t="s">
         <v>59</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>13.21</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="17" t="s">
         <v>32</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="15" t="s">
         <v>34</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>156.56</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="17" t="s">
         <v>36</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>51.46</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="15" t="s">
         <v>56</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>17.309999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="17" t="s">
         <v>38</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="15" t="s">
         <v>58</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="17" t="s">
         <v>59</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>16.260000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="15" t="s">
         <v>32</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="17" t="s">
         <v>34</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>149.84</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="15" t="s">
         <v>36</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>55.71</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="17" t="s">
         <v>56</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>14.02</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="15" t="s">
         <v>38</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>5.09</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="17" t="s">
         <v>58</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="15" t="s">
         <v>59</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="17" t="s">
         <v>32</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="15" t="s">
         <v>34</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>142.93</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="17" t="s">
         <v>36</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>53.05</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="15" t="s">
         <v>56</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="17" t="s">
         <v>38</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="15" t="s">
         <v>58</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>23.84</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="17" t="s">
         <v>59</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>22.61</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="15" t="s">
         <v>32</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="17" t="s">
         <v>34</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>137.4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="15" t="s">
         <v>36</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>47.63</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="17" t="s">
         <v>56</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>15.94</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="15" t="s">
         <v>38</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="17" t="s">
         <v>58</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>31.19</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="15" t="s">
         <v>59</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="17" t="s">
         <v>32</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="15" t="s">
         <v>34</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>129.21</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="17" t="s">
         <v>36</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>50.82</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="15" t="s">
         <v>56</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>16.66</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="17" t="s">
         <v>38</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="15" t="s">
         <v>58</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>37.54</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="17" t="s">
         <v>59</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="15" t="s">
         <v>32</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="17" t="s">
         <v>34</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>125.61</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="15" t="s">
         <v>36</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>46.67</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="17" t="s">
         <v>56</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>15.26</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="15" t="s">
         <v>38</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="17" t="s">
         <v>58</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>44.99</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="15" t="s">
         <v>59</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>31.87</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="17" t="s">
         <v>32</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="15" t="s">
         <v>34</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="17" t="s">
         <v>36</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="15" t="s">
         <v>56</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="17" t="s">
         <v>38</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="15" t="s">
         <v>58</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="17" t="s">
         <v>59</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="15" t="s">
         <v>32</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="17" t="s">
         <v>34</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>28.82</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="15" t="s">
         <v>36</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="17" t="s">
         <v>56</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="15" t="s">
         <v>38</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="17" t="s">
         <v>58</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="15" t="s">
         <v>59</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="17" t="s">
         <v>32</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="15" t="s">
         <v>34</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>28.86</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="17" t="s">
         <v>36</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>10.55</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="15" t="s">
         <v>56</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="17" t="s">
         <v>38</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="15" t="s">
         <v>58</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="17" t="s">
         <v>59</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="15" t="s">
         <v>32</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="17" t="s">
         <v>34</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="15" t="s">
         <v>36</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="17" t="s">
         <v>56</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="15" t="s">
         <v>38</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="17" t="s">
         <v>58</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="15" t="s">
         <v>59</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="17" t="s">
         <v>32</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="15" t="s">
         <v>34</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="17" t="s">
         <v>36</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="15" t="s">
         <v>56</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>6.86</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="17" t="s">
         <v>38</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="15" t="s">
         <v>58</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="17" t="s">
         <v>59</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="15" t="s">
         <v>32</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="17" t="s">
         <v>34</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="15" t="s">
         <v>36</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="17" t="s">
         <v>56</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="15" t="s">
         <v>38</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="17" t="s">
         <v>58</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="15" t="s">
         <v>59</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="17" t="s">
         <v>32</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="15" t="s">
         <v>34</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="17" t="s">
         <v>36</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>10.49</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="15" t="s">
         <v>56</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="17" t="s">
         <v>57</v>
       </c>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="D218" s="18"/>
     </row>
-    <row r="219" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="15" t="s">
         <v>38</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="17" t="s">
         <v>58</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="15" t="s">
         <v>59</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="17" t="s">
         <v>32</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="15" t="s">
         <v>34</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="17" t="s">
         <v>36</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>12.77</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="15" t="s">
         <v>56</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="17" t="s">
         <v>38</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="15" t="s">
         <v>58</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="17" t="s">
         <v>59</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="15" t="s">
         <v>32</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="17" t="s">
         <v>34</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="15" t="s">
         <v>36</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="17" t="s">
         <v>56</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="15" t="s">
         <v>38</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="17" t="s">
         <v>58</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="15" t="s">
         <v>59</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="17" t="s">
         <v>32</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="15" t="s">
         <v>34</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>30.96</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="17" t="s">
         <v>36</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>14.74</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="15" t="s">
         <v>56</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="17" t="s">
         <v>38</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="15" t="s">
         <v>58</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="17" t="s">
         <v>59</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="15" t="s">
         <v>32</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="17" t="s">
         <v>34</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>30.47</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="15" t="s">
         <v>36</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>16.88</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="17" t="s">
         <v>56</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="15" t="s">
         <v>38</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="17" t="s">
         <v>58</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="15" t="s">
         <v>59</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="17" t="s">
         <v>32</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="15" t="s">
         <v>34</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="17" t="s">
         <v>36</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" s="15" t="s">
         <v>56</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="17" t="s">
         <v>38</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="15" t="s">
         <v>58</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="17" t="s">
         <v>59</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="15" t="s">
         <v>32</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="17" t="s">
         <v>34</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="15" t="s">
         <v>36</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>17.95</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="17" t="s">
         <v>56</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="15" t="s">
         <v>38</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="17" t="s">
         <v>58</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="15" t="s">
         <v>59</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="17" t="s">
         <v>32</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="15" t="s">
         <v>34</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="17" t="s">
         <v>36</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>18.309999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="15" t="s">
         <v>56</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="17" t="s">
         <v>38</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="15" t="s">
         <v>58</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="17" t="s">
         <v>59</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="15" t="s">
         <v>32</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="17" t="s">
         <v>34</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>28.29</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="15" t="s">
         <v>36</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>18.920000000000002</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="17" t="s">
         <v>56</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="15" t="s">
         <v>38</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="17" t="s">
         <v>58</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="15" t="s">
         <v>59</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="17" t="s">
         <v>32</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="15" t="s">
         <v>34</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="17" t="s">
         <v>36</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>23.61</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="15" t="s">
         <v>56</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="17" t="s">
         <v>38</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="15" t="s">
         <v>58</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="17" t="s">
         <v>59</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>4.18</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="15" t="s">
         <v>32</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="17" t="s">
         <v>34</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>26.94</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="15" t="s">
         <v>36</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>22.83</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="17" t="s">
         <v>56</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="15" t="s">
         <v>38</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="17" t="s">
         <v>58</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="15" t="s">
         <v>59</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>4.32</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="17" t="s">
         <v>32</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="15" t="s">
         <v>34</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="17" t="s">
         <v>36</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>22.71</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="15" t="s">
         <v>56</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="17" t="s">
         <v>38</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="15" t="s">
         <v>58</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>7.29</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="17" t="s">
         <v>59</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="15" t="s">
         <v>32</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="17" t="s">
         <v>34</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="15" t="s">
         <v>36</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="17" t="s">
         <v>56</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="15" t="s">
         <v>38</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="17" t="s">
         <v>58</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>11.37</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" s="15" t="s">
         <v>59</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>6.41</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" s="17" t="s">
         <v>32</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" s="15" t="s">
         <v>34</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" s="17" t="s">
         <v>36</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>23.32</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" s="15" t="s">
         <v>56</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" s="17" t="s">
         <v>38</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" s="15" t="s">
         <v>58</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>16.149999999999999</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" s="17" t="s">
         <v>59</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" s="15" t="s">
         <v>32</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" s="17" t="s">
         <v>34</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" s="15" t="s">
         <v>36</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>24.66</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" s="17" t="s">
         <v>56</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" s="15" t="s">
         <v>38</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" s="17" t="s">
         <v>58</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>20.84</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" s="15" t="s">
         <v>59</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>10.210000000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" s="17" t="s">
         <v>32</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="15" t="s">
         <v>34</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="17" t="s">
         <v>36</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>24.93</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="15" t="s">
         <v>56</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="17" t="s">
         <v>38</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="15" t="s">
         <v>58</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>25.76</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="17" t="s">
         <v>59</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="15" t="s">
         <v>32</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="17" t="s">
         <v>34</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="15" t="s">
         <v>36</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>26.98</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="17" t="s">
         <v>56</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="15" t="s">
         <v>38</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="17" t="s">
         <v>58</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="15" t="s">
         <v>59</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" s="17" t="s">
         <v>32</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="15" t="s">
         <v>34</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>22.86</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="17" t="s">
         <v>36</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>27.04</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="15" t="s">
         <v>56</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="17" t="s">
         <v>38</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="15" t="s">
         <v>58</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>33.68</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" s="17" t="s">
         <v>59</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>11.33</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="15" t="s">
         <v>32</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="17" t="s">
         <v>34</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>160.41</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="15" t="s">
         <v>36</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>12.28</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="17" t="s">
         <v>56</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="15" t="s">
         <v>38</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="17" t="s">
         <v>58</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="15" t="s">
         <v>59</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" s="17" t="s">
         <v>32</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="15" t="s">
         <v>34</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>159.88</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="17" t="s">
         <v>36</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>17.96</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="15" t="s">
         <v>56</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" s="17" t="s">
         <v>38</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="15" t="s">
         <v>58</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="17" t="s">
         <v>59</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="15" t="s">
         <v>32</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" s="17" t="s">
         <v>34</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>152.49</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" s="15" t="s">
         <v>36</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>22.39</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" s="17" t="s">
         <v>56</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" s="15" t="s">
         <v>38</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="17" t="s">
         <v>58</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" s="15" t="s">
         <v>59</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="17" t="s">
         <v>32</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="15" t="s">
         <v>34</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>153.80000000000001</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" s="17" t="s">
         <v>36</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" s="15" t="s">
         <v>56</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" s="17" t="s">
         <v>38</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A367" s="15" t="s">
         <v>58</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A368" s="17" t="s">
         <v>59</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" s="15" t="s">
         <v>32</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" s="17" t="s">
         <v>34</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>158.38</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" s="15" t="s">
         <v>36</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>20.05</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" s="17" t="s">
         <v>56</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" s="15" t="s">
         <v>38</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374" s="17" t="s">
         <v>58</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" s="15" t="s">
         <v>59</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" s="17" t="s">
         <v>32</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" s="15" t="s">
         <v>34</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>161.94</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" s="17" t="s">
         <v>36</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>17.05</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" s="15" t="s">
         <v>56</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" s="17" t="s">
         <v>38</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" s="15" t="s">
         <v>58</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382" s="17" t="s">
         <v>59</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383" s="15" t="s">
         <v>32</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384" s="17" t="s">
         <v>34</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>164.4</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A385" s="15" t="s">
         <v>36</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A386" s="17" t="s">
         <v>56</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" s="15" t="s">
         <v>57</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" s="17" t="s">
         <v>38</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" s="15" t="s">
         <v>58</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A390" s="17" t="s">
         <v>59</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A391" s="15" t="s">
         <v>32</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A392" s="17" t="s">
         <v>34</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A393" s="15" t="s">
         <v>36</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>24.48</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A394" s="17" t="s">
         <v>56</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A395" s="15" t="s">
         <v>38</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A396" s="17" t="s">
         <v>58</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A397" s="15" t="s">
         <v>59</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398" s="17" t="s">
         <v>32</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A399" s="15" t="s">
         <v>34</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>162.72999999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A400" s="17" t="s">
         <v>36</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401" s="15" t="s">
         <v>56</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402" s="17" t="s">
         <v>38</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403" s="15" t="s">
         <v>58</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A404" s="17" t="s">
         <v>59</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405" s="15" t="s">
         <v>32</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" s="17" t="s">
         <v>34</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>160.77000000000001</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" s="15" t="s">
         <v>36</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>30.14</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" s="17" t="s">
         <v>56</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A409" s="15" t="s">
         <v>38</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410" s="17" t="s">
         <v>58</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411" s="15" t="s">
         <v>59</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412" s="17" t="s">
         <v>32</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A413" s="15" t="s">
         <v>34</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>155.47</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" s="17" t="s">
         <v>36</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>34.29</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" s="15" t="s">
         <v>56</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" s="17" t="s">
         <v>38</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A417" s="15" t="s">
         <v>58</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A418" s="17" t="s">
         <v>59</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A419" s="15" t="s">
         <v>32</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A420" s="17" t="s">
         <v>34</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>151.9</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A421" s="15" t="s">
         <v>36</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A422" s="17" t="s">
         <v>56</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A423" s="15" t="s">
         <v>38</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424" s="17" t="s">
         <v>58</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425" s="15" t="s">
         <v>59</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A426" s="17" t="s">
         <v>32</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A427" s="15" t="s">
         <v>34</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>146.06</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A428" s="17" t="s">
         <v>36</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>36.51</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A429" s="15" t="s">
         <v>56</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A430" s="17" t="s">
         <v>38</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A431" s="15" t="s">
         <v>58</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A432" s="17" t="s">
         <v>59</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" s="15" t="s">
         <v>32</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" s="17" t="s">
         <v>34</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>137.28</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435" s="15" t="s">
         <v>36</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>38.64</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A436" s="17" t="s">
         <v>56</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A437" s="15" t="s">
         <v>38</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A438" s="17" t="s">
         <v>58</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A439" s="15" t="s">
         <v>59</v>
       </c>
@@ -9557,7 +9557,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A440" s="17" t="s">
         <v>32</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A441" s="15" t="s">
         <v>34</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>137.1</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A442" s="17" t="s">
         <v>36</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>39.33</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A443" s="15" t="s">
         <v>56</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A444" s="17" t="s">
         <v>38</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A445" s="15" t="s">
         <v>58</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A446" s="17" t="s">
         <v>59</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A447" s="15" t="s">
         <v>32</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A448" s="17" t="s">
         <v>34</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>143.25</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A449" s="15" t="s">
         <v>36</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>36.43</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A450" s="17" t="s">
         <v>56</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A451" s="15" t="s">
         <v>38</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A452" s="17" t="s">
         <v>58</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A453" s="15" t="s">
         <v>59</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A454" s="17" t="s">
         <v>32</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A455" s="15" t="s">
         <v>34</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>143.36000000000001</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A456" s="17" t="s">
         <v>36</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>35.26</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A457" s="15" t="s">
         <v>56</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A458" s="17" t="s">
         <v>38</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A459" s="15" t="s">
         <v>58</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A460" s="17" t="s">
         <v>59</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A461" s="15" t="s">
         <v>32</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A462" s="17" t="s">
         <v>34</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>140.31</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A463" s="15" t="s">
         <v>36</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>40.380000000000003</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A464" s="17" t="s">
         <v>56</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A465" s="15" t="s">
         <v>38</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A466" s="17" t="s">
         <v>58</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A467" s="15" t="s">
         <v>59</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A468" s="17" t="s">
         <v>32</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A469" s="15" t="s">
         <v>34</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>137.78</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A470" s="17" t="s">
         <v>36</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>37.72</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A471" s="15" t="s">
         <v>56</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A472" s="17" t="s">
         <v>38</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A473" s="15" t="s">
         <v>58</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A474" s="17" t="s">
         <v>59</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A475" s="15" t="s">
         <v>32</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A476" s="17" t="s">
         <v>34</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>131.86000000000001</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A477" s="15" t="s">
         <v>36</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>40.83</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A478" s="17" t="s">
         <v>56</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A479" s="15" t="s">
         <v>38</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A480" s="17" t="s">
         <v>58</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A481" s="15" t="s">
         <v>59</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A482" s="17" t="s">
         <v>32</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A483" s="15" t="s">
         <v>34</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>125.78</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A484" s="17" t="s">
         <v>36</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>38.880000000000003</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A485" s="15" t="s">
         <v>56</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A486" s="17" t="s">
         <v>38</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A487" s="15" t="s">
         <v>58</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A488" s="17" t="s">
         <v>59</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A489" s="15" t="s">
         <v>32</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A490" s="17" t="s">
         <v>34</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>120.92</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A491" s="15" t="s">
         <v>36</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>34.909999999999997</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A492" s="17" t="s">
         <v>56</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A493" s="15" t="s">
         <v>38</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A494" s="17" t="s">
         <v>58</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A495" s="15" t="s">
         <v>59</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A496" s="17" t="s">
         <v>32</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A497" s="15" t="s">
         <v>34</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>113.71</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A498" s="17" t="s">
         <v>36</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>37.25</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A499" s="15" t="s">
         <v>56</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A500" s="17" t="s">
         <v>38</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A501" s="15" t="s">
         <v>58</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A502" s="17" t="s">
         <v>59</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A503" s="15" t="s">
         <v>32</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A504" s="17" t="s">
         <v>34</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>110.58</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A505" s="15" t="s">
         <v>36</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A506" s="17" t="s">
         <v>56</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A507" s="15" t="s">
         <v>38</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A508" s="17" t="s">
         <v>58</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A509" s="15" t="s">
         <v>59</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A510" s="17" t="s">
         <v>61</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A511" s="15" t="s">
         <v>60</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A512" s="17" t="s">
         <v>61</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A513" s="15" t="s">
         <v>60</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A514" s="17" t="s">
         <v>61</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A515" s="15" t="s">
         <v>60</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A516" s="17" t="s">
         <v>61</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A517" s="15" t="s">
         <v>60</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A518" s="17" t="s">
         <v>61</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A519" s="15" t="s">
         <v>60</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A520" s="17" t="s">
         <v>61</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A521" s="15" t="s">
         <v>60</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A522" s="17" t="s">
         <v>61</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A523" s="15" t="s">
         <v>60</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A524" s="17" t="s">
         <v>61</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A525" s="15" t="s">
         <v>60</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A526" s="17" t="s">
         <v>61</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A527" s="15" t="s">
         <v>60</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A528" s="17" t="s">
         <v>61</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A529" s="15" t="s">
         <v>60</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A530" s="17" t="s">
         <v>61</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A531" s="15" t="s">
         <v>60</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A532" s="17" t="s">
         <v>61</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A533" s="15" t="s">
         <v>60</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A534" s="17" t="s">
         <v>61</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A535" s="15" t="s">
         <v>60</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A536" s="17" t="s">
         <v>61</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A537" s="15" t="s">
         <v>60</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A538" s="17" t="s">
         <v>61</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A539" s="15" t="s">
         <v>60</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A540" s="17" t="s">
         <v>61</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A541" s="15" t="s">
         <v>60</v>
       </c>
@@ -10985,7 +10985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A542" s="17" t="s">
         <v>61</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A543" s="15" t="s">
         <v>60</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A544" s="17" t="s">
         <v>61</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A545" s="15" t="s">
         <v>60</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A546" s="17" t="s">
         <v>61</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A547" s="15" t="s">
         <v>60</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A548" s="17" t="s">
         <v>61</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A549" s="15" t="s">
         <v>60</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A550" s="17" t="s">
         <v>61</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A551" s="15" t="s">
         <v>60</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A552" s="17" t="s">
         <v>61</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A553" s="15" t="s">
         <v>60</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A554" s="17" t="s">
         <v>61</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A555" s="15" t="s">
         <v>60</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A556" s="17" t="s">
         <v>61</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A557" s="15" t="s">
         <v>60</v>
       </c>
